--- a/files/gui/uimask流程.xlsx
+++ b/files/gui/uimask流程.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>mask1</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>这其实是树的后序遍历，从子节点往上开始遍历。</t>
+  </si>
+  <si>
+    <t>其实没法判断上一个是不是UIMask，因为child有多个，child又是无序的。所以只好每个Image都执行一次关闭stencil。</t>
+  </si>
+  <si>
+    <t>当然后面会在opengl上加一层封装，对关闭stencil进行判断，只在打开stencil的时候才调用关闭，减少opengl api调用。</t>
+  </si>
+  <si>
+    <t>叫render_device吧</t>
   </si>
   <si>
     <t>用list存储所有go，添加child的时候就插入到后面。</t>
@@ -87,12 +96,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +111,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,8 +145,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -124,54 +178,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,8 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,22 +209,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -222,8 +216,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -232,14 +241,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +480,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -482,6 +513,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -490,7 +530,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -510,41 +561,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,138 +581,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,16 +783,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -790,7 +809,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228850" y="5314950"/>
+          <a:off x="7029450" y="5600700"/>
           <a:ext cx="3190875" cy="3867150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1067,15 +1086,15 @@
   <sheetPr/>
   <dimension ref="A3:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
@@ -1166,28 +1185,43 @@
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
